--- a/cmip6/models/canesm5/cmip6_cccma_canesm5_atmos.xlsx
+++ b/cmip6/models/canesm5/cmip6_cccma_canesm5_atmos.xlsx
@@ -48,7 +48,7 @@
     <t>CANESM5</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Atmosphere</t>

--- a/cmip6/models/canesm5/cmip6_cccma_canesm5_atmos.xlsx
+++ b/cmip6/models/canesm5/cmip6_cccma_canesm5_atmos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1884" uniqueCount="1099">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -2292,12 +2292,12 @@
     <t>cmip6.atmos.microphysics_precipitation.large_scale_cloud_microphysics.processes</t>
   </si>
   <si>
+    <t>Mixed phase</t>
+  </si>
+  <si>
     <t>Cloud droplets</t>
   </si>
   <si>
-    <t>Mixed phase</t>
-  </si>
-  <si>
     <t>Cloud ice</t>
   </si>
   <si>
@@ -3318,10 +3318,10 @@
     <t>cmip6.atmos.natural_forcing.volcanoes_treatment.volcanoes_implementation</t>
   </si>
   <si>
+    <t>High frequency solar constant anomaly</t>
+  </si>
+  <si>
     <t>Stratospheric aerosols optical thickness</t>
-  </si>
-  <si>
-    <t>High frequency solar constant anomaly</t>
   </si>
 </sst>
 </file>
@@ -5536,14 +5536,12 @@
       </c>
     </row>
     <row r="77" spans="1:29" ht="24" customHeight="1">
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="11"/>
+      <c r="AA77" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="AA77" s="6" t="s">
+      <c r="AB77" s="6" t="s">
         <v>1098</v>
-      </c>
-      <c r="AB77" s="6" t="s">
-        <v>1097</v>
       </c>
       <c r="AC77" s="6" t="s">
         <v>67</v>
@@ -10783,7 +10781,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD45"/>
+  <dimension ref="A1:XFD38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11020,14 +11018,12 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="24" customHeight="1">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="11"/>
+      <c r="AA38" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="AA38" s="6" t="s">
+      <c r="AB38" s="6" t="s">
         <v>756</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>755</v>
       </c>
       <c r="AC38" s="6" t="s">
         <v>757</v>
@@ -11051,232 +11047,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="24" customHeight="1">
-      <c r="B39" s="11" t="s">
-        <v>757</v>
-      </c>
-      <c r="AA39" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB39" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AC39" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="AD39" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE39" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="AF39" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="AG39" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AH39" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AI39" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35" ht="24" customHeight="1">
-      <c r="B40" s="11" t="s">
-        <v>762</v>
-      </c>
-      <c r="AA40" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB40" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AC40" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="AD40" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE40" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="AF40" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="AG40" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AH40" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AI40" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35" ht="24" customHeight="1">
-      <c r="B41" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA41" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB41" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AC41" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="AD41" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE41" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="AF41" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="AG41" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AH41" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AI41" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35" ht="24" customHeight="1">
-      <c r="B42" s="11" t="s">
-        <v>761</v>
-      </c>
-      <c r="AA42" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AC42" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="AD42" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE42" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="AF42" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="AG42" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AH42" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AI42" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35" ht="24" customHeight="1">
-      <c r="B43" s="11" t="s">
-        <v>758</v>
-      </c>
-      <c r="AA43" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB43" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AC43" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="AD43" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE43" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="AF43" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="AG43" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AH43" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AI43" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35" ht="24" customHeight="1">
-      <c r="B44" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="AA44" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB44" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AC44" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="AD44" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE44" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="AF44" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="AG44" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AH44" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AI44" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" ht="24" customHeight="1">
-      <c r="B45" s="11" t="s">
-        <v>759</v>
-      </c>
-      <c r="AA45" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AC45" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="AD45" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="AE45" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="AF45" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="AG45" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AH45" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AI45" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AE24</formula1>
     </dataValidation>
@@ -11285,27 +11057,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>AA38:AI38</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>AA39:AI39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
-      <formula1>AA40:AI40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
-      <formula1>AA41:AI41</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AI42</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>AA43:AI43</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>AA44:AI44</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>AA45:AI45</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmip6/models/canesm5/cmip6_cccma_canesm5_atmos.xlsx
+++ b/cmip6/models/canesm5/cmip6_cccma_canesm5_atmos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="1129">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -5739,10 +5739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="19" spans="1:2" ht="18">
       <c r="A19" s="11" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>616</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="20" spans="1:2" ht="18">
       <c r="A20" s="11" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>616</v>
@@ -5849,7 +5849,7 @@
     </row>
     <row r="21" spans="1:2" ht="18">
       <c r="A21" s="11" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>616</v>
@@ -5857,15 +5857,15 @@
     </row>
     <row r="22" spans="1:2" ht="18">
       <c r="A22" s="11" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>616</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18">
       <c r="A23" s="11" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>716</v>
@@ -5873,46 +5873,38 @@
     </row>
     <row r="24" spans="1:2" ht="18">
       <c r="A24" s="11" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>716</v>
+        <v>848</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18">
       <c r="A25" s="11" t="s">
-        <v>1115</v>
+        <v>1122</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>848</v>
+        <v>929</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18">
       <c r="A26" s="11" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>929</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18">
-      <c r="A27" s="11" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9">
       <formula1>"Author,Contributor,Principal Investigator,Point of Contact,Sponsor"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17:B27">
       <formula1>"Top Level,Key Properties,Grid,Dynamical Core,Radiation,Turbulence Convection,Microphysics Precipitation,Cloud Scheme,Observation Simulation,Gravity Waves,Natural Forcing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11462,7 +11454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
